--- a/Glosario Establecimientos.xlsx
+++ b/Glosario Establecimientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATASALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F63EBE4-7661-BF4A-9A40-0254A464FB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74869AD-CEB1-4021-8791-81D0F2D7F7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="460" windowWidth="13220" windowHeight="16520" xr2:uid="{E2CE916B-77CF-C349-87E8-586301027157}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2CE916B-77CF-C349-87E8-586301027157}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE7C86D-3D1D-C541-8111-764063C67EDC}" name="Tabla1" displayName="Tabla1" ref="A3:D61" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE7C86D-3D1D-C541-8111-764063C67EDC}" name="Glosario" displayName="Glosario" ref="A3:D61" totalsRowShown="0">
   <autoFilter ref="A3:D61" xr:uid="{47816FE9-E9B6-BB4D-AD20-CC14FC11063C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{43254E25-AE0B-2749-9BD4-EE0D7DC57E02}" name="Filtro"/>
@@ -759,18 +759,18 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="70.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
     <col min="4" max="4" width="188" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -809,7 +809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -823,7 +823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -848,7 +848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -859,7 +859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -881,7 +881,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -903,7 +903,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -914,7 +914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -925,7 +925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -936,7 +936,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -947,7 +947,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -958,7 +958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -969,7 +969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -983,7 +983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -997,7 +997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1340,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>

--- a/Glosario Establecimientos.xlsx
+++ b/Glosario Establecimientos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATASALUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/DATA-SALUD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74869AD-CEB1-4021-8791-81D0F2D7F7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5A7B7-5B19-E84A-A247-947C9C3F040F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2CE916B-77CF-C349-87E8-586301027157}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{E2CE916B-77CF-C349-87E8-586301027157}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
   <si>
     <t>Glosario categorías establecimientos de salud</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Dependencia</t>
   </si>
   <si>
-    <t>Centro Comunitario de Salud Familiar (CECOSF)</t>
-  </si>
-  <si>
-    <t>Centro Comunitario de Salud Mental  (COSAM)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centro Corporación para la Nutrición Infantil </t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Centro de Referencia de Salud</t>
   </si>
   <si>
-    <t>Centro Regulación Médica de las Urgencias (SAMU)</t>
-  </si>
-  <si>
     <t>Centro de Salud</t>
   </si>
   <si>
@@ -104,12 +95,6 @@
     <t>Consultorio de Diagnóstico y Tratamiento</t>
   </si>
   <si>
-    <t>Consultorio General Rural (CGR)</t>
-  </si>
-  <si>
-    <t>Consultorio General Urbano (CGU)</t>
-  </si>
-  <si>
     <t>Dispositivo Incorporado por Crisis Sanitaria</t>
   </si>
   <si>
@@ -137,18 +122,9 @@
     <t>Oficina Sanitaria</t>
   </si>
   <si>
-    <t>Posta de Salud Rural (PSR)</t>
-  </si>
-  <si>
-    <t>Puesto de Atención Médica de Emergencia (PAME) Incorporado por Crisis Sanitaria</t>
-  </si>
-  <si>
     <t>Sala de Procedimientos - Vacunatorio</t>
   </si>
   <si>
-    <t>Sala de Procedimientos Odontológicos Móvil (SPOM)</t>
-  </si>
-  <si>
     <t>Servicio de Urgencias de APS</t>
   </si>
   <si>
@@ -164,24 +140,12 @@
     <t>Centro de Rehabilitación</t>
   </si>
   <si>
-    <t>Centros Exclusivos de Atención Respiratoria (CEAR)</t>
-  </si>
-  <si>
     <t>Consultorio Salud Mental</t>
   </si>
   <si>
     <t>Programa de Reparación y Atención Integral de Salud</t>
   </si>
   <si>
-    <t>Servicio de Atención Primeria de Urgencias (SAPU)</t>
-  </si>
-  <si>
-    <t>Servicio de Atención Primeria de Urgencias de Alta Resolutividad (SAR)</t>
-  </si>
-  <si>
-    <t>Servicio de Urgencia Rural (SUR)</t>
-  </si>
-  <si>
     <t>Unidad de Memoria</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t>Primario</t>
   </si>
   <si>
-    <t>Seucundiario</t>
-  </si>
-  <si>
     <t>Terciario</t>
   </si>
   <si>
@@ -230,9 +191,6 @@
     <t>Establecimiento de atención ambulatoria dedicado al área de salud mental y psiquiátrica. Otorga atención a los residentes de la comuna inscritos en CESFAM, consultorios o estaciones médicas de barrio.</t>
   </si>
   <si>
-    <t>Centro de Salud Familiar (CESFAM)</t>
-  </si>
-  <si>
     <t>Sigla</t>
   </si>
   <si>
@@ -281,9 +239,6 @@
     <t>Establecimientos que acerca la salud a la población de su jurisdicción frente a procedimientos de baja ocmplejidad. Dependen del Servicio de Salud que corresponda.</t>
   </si>
   <si>
-    <t>Establecimiento que brinda atenciones básicas de salud ala población inscrita en el centro del cual dependen. Trabaja al alero de un CES o CESFAM.</t>
-  </si>
-  <si>
     <t>Establecimiento dedicado a tratar las necesidades psicosociales y nutricionales de niños y niñas durante los primeros años de vida.</t>
   </si>
   <si>
@@ -344,7 +299,175 @@
     <t>SPOM</t>
   </si>
   <si>
-    <t>Salas especializadas en vacunas</t>
+    <t>Centro Comunitario de Salud Familiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Comunitario de Salud Mental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Regulación Médica de las Urgencias </t>
+  </si>
+  <si>
+    <t>Centro de Salud Familiar</t>
+  </si>
+  <si>
+    <t>Consultorio General Rural</t>
+  </si>
+  <si>
+    <t>Consultorio General Urbano</t>
+  </si>
+  <si>
+    <t>Posta de Salud Rural</t>
+  </si>
+  <si>
+    <t>Sala de Procedimientos Odontológicos Móvil</t>
+  </si>
+  <si>
+    <t>CEAR</t>
+  </si>
+  <si>
+    <t>SAPU</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>Centros Exclusivos de Atención Respiratoria</t>
+  </si>
+  <si>
+    <t>Servicio de Atención Primeria de Urgencias</t>
+  </si>
+  <si>
+    <t>Establecimientos de atención abierta de mediana complejidad, que proporcionan atención de tipo diagnóstico y terapéutico preferentemente a pacientes referidos por los Consultorios Generales.</t>
+  </si>
+  <si>
+    <t>SAMU es el término exclusivo, reservado y protegido internacionalmente para llamar este Centro de Regulación Médica de las Urgencias. Es una institución dependiente del Ministerio de Salud, presente en todas las regiones de Chile, cuya labor es gestionar todas las llamadas realizadas al 131 de manera regional.</t>
+  </si>
+  <si>
+    <t>Lugares que brindan cuidados para la salud. Incluyen hospitales, clínicas, centros de cuidados ambulatorios y centros de cuidados especializados, tales como las maternidades y los centros psiquiátricos.</t>
+  </si>
+  <si>
+    <t>Establecimientos de salud presentes en pasos fronterizos.</t>
+  </si>
+  <si>
+    <t>Salas moviles (sobre un medio de transporte) donde se ralizan procedimientos dentales.</t>
+  </si>
+  <si>
+    <t>Servicio público que depende del Ministerio de Justicia. Asesora técnicamente a los Tribunales de Justicia y al Ministerio Público en materias médico-legales, a través de la remisión de informes periciales tanalógicos, psiquiátricos, clínicos, sexológicos y de laboratorio.</t>
+  </si>
+  <si>
+    <t>Sala donde se ponen vacunas.</t>
+  </si>
+  <si>
+    <t>Servicio de Urgencia Rural</t>
+  </si>
+  <si>
+    <t>Establecimientos de la salud privados.</t>
+  </si>
+  <si>
+    <t>Establecimientos de la salud que dependen de la municipalidad.</t>
+  </si>
+  <si>
+    <t>Establecimientos de la salud públicos que dependen del Servicio de Salud</t>
+  </si>
+  <si>
+    <t>Establecimientos de la salud públicos que no pertenecen al Servicio de Salud.</t>
+  </si>
+  <si>
+    <t>Secundiario</t>
+  </si>
+  <si>
+    <t>Servicios que dependen del Ministerio de Justicia.</t>
+  </si>
+  <si>
+    <t>Establecimiento de salud que ofrece atención a las necesidades de urgencia/emergencia1 de baja complejidad, que se emplaza adosado a un Centro de Salud de Atención Primaria o en un local anexo</t>
+  </si>
+  <si>
+    <t>Servicio de salud que ofrece atención a las necesidades de urgencia/emergencia1 de baja complejidad, que se emplaza adosado a un Centro de Salud de Atención Primaria o en un local anexo</t>
+  </si>
+  <si>
+    <t>Servicio de Atención Primaria de Urgencias de Alta Resolutividad</t>
+  </si>
+  <si>
+    <t>Componente de la Red de Urgencias, similar al SAPU pero con mayor capacidad Resolutiva, dado por tener camillas de observación y toma de exámenes de apoyo diagnóstico. Atiende Urgencias de baja complejidad.</t>
+  </si>
+  <si>
+    <t>Servicio que entregan atención médica de urgencia, oportuna, resolutiva y de calidad, a la población inscrita, en un horario que complementa el funcionamiento del CESFAM y SAPU. Baja Complejidad.</t>
+  </si>
+  <si>
+    <t>Servicio de la salud que se brinda de manera móvil, es decir, sobre un medio de transporte. Incluye servicios dentales, oftalmológicos y mamografías.</t>
+  </si>
+  <si>
+    <t>Atención urgente de afecciones sin peligro en plazo breve, pero en las que es importante un diagnóstico precoz.</t>
+  </si>
+  <si>
+    <t>Atención urgente de afecciones que requieren hospitalización.</t>
+  </si>
+  <si>
+    <t>Centros especializados en tratar pacientes con dificultades respiratorias.</t>
+  </si>
+  <si>
+    <t>Servicios que dependen de una autoridad sanitaria como pasos fronterizos o de la SEREMIA.</t>
+  </si>
+  <si>
+    <t>El primer nivel de atneción de la salud es el nivel más cercano a la población, o sea el nivel del primer contacto.</t>
+  </si>
+  <si>
+    <t>El tercer nivel de atención de la salud es el formado por hospitales de alta tecnología e institutos especializados.</t>
+  </si>
+  <si>
+    <t>En el segundo nivel de atención están las instituciones de salud con internación en servicios básicos: Clínica Médica, Pediatría, Cirugía General, Guardia y Maternidad, además de la infraestructura necesaria para realizar exámenes complementarios y  diagnósticos básicos.</t>
+  </si>
+  <si>
+    <t>Establecimientos que forman parte del Plan Nacional de Demencia.</t>
+  </si>
+  <si>
+    <t>Establecimientos que brindan atenciones básicas de salud a la población inscrita en el centro del cual dependen.</t>
+  </si>
+  <si>
+    <t>Establecimiento que brinda atenciones básicas de salud a la población inscrita en el centro del cual dependen. Trabaja al alero de un CES o CESFAM.</t>
+  </si>
+  <si>
+    <t>Establecimientos especializandos en rehabilitar a pacientes en situación de discapacidad.</t>
+  </si>
+  <si>
+    <t>Establecimientos de atención ambulatoria, dedicados al área de salud mental y psiquiatría, que apoyan y complementan a los consultorios de la comuna en la cual funciona.</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>Programa orientado a la atención integral de salud a lo largo de todo el ciclo vital para pacientes que fueron víctimas de la represión política en el periodo de dictadura entre 1973-1990.</t>
+  </si>
+  <si>
+    <t>Elementos asistenciales de carácter básico en la Red de Salud Mental. Estas unidades están compuestas por equipos multidisciplinares, con profesionales de diferentes áreas como: médicos, psicólogos, enfermeros, trabajadores sociales.</t>
+  </si>
+  <si>
+    <t>CAIF</t>
+  </si>
+  <si>
+    <t>Centro dedicado a la atención integral de los funcionarios.</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Establecimientos en los cuales se modifican normativas orientadas principalmente a dar una mayor flexibilidad a la gestión de RRHH y financieros.</t>
+  </si>
+  <si>
+    <t>Puesto de Atención Médica de Emergencia</t>
+  </si>
+  <si>
+    <t>PAME</t>
+  </si>
+  <si>
+    <t>Salas especializadas en vacunas.</t>
+  </si>
+  <si>
+    <t>SML</t>
   </si>
 </sst>
 </file>
@@ -418,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,6 +549,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,7 +558,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -453,7 +582,7 @@
     <tableColumn id="1" xr3:uid="{43254E25-AE0B-2749-9BD4-EE0D7DC57E02}" name="Filtro"/>
     <tableColumn id="2" xr3:uid="{5AC73723-E558-A94A-B7A0-2DE8FAD8C2F9}" name="Categoría"/>
     <tableColumn id="4" xr3:uid="{269F39FE-9819-CA4A-8B6D-FF2AA111E669}" name="Sigla"/>
-    <tableColumn id="3" xr3:uid="{74489DC3-1E2D-9F4B-964A-80E62A5571A2}" name="Definición"/>
+    <tableColumn id="3" xr3:uid="{74489DC3-1E2D-9F4B-964A-80E62A5571A2}" name="Definición" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -758,30 +887,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44865565-F5EC-9543-8871-07D4D9F4CE8E}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.796875" customWidth="1"/>
-    <col min="4" max="4" width="188" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="107.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -789,587 +918,721 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D34" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="D29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1377,8 +1640,9 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>